--- a/QUOTATION.xlsx
+++ b/QUOTATION.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F3DC02-CD45-4A53-9AC9-8A0B51769DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -297,8 +311,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +728,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -729,7 +751,13 @@
     <xdr:ext cx="2419350" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png" descr="C:\Users\OWNER\Desktop\Digital Board\DBD.png"/>
+        <xdr:cNvPr id="2" name="image2.png" descr="C:\Users\OWNER\Desktop\Digital Board\DBD.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -761,7 +789,13 @@
     <xdr:ext cx="2000250" cy="685800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.png"/>
+        <xdr:cNvPr id="3" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -829,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,9 +895,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,6 +947,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1070,28 +1140,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="15" style="6" customWidth="1"/>
     <col min="9" max="26" width="14" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="6"/>
+    <col min="27" max="16384" width="14.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1101,7 +1171,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1183,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1195,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1207,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1219,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1231,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="16" t="s">
         <v>5</v>
@@ -1173,7 +1243,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1257,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
         <v>8</v>
@@ -1199,7 +1269,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
@@ -1211,7 +1281,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -1223,7 +1293,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="21" t="s">
         <v>11</v>
@@ -1235,7 +1305,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="22" t="s">
         <v>12</v>
@@ -1247,7 +1317,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
       <c r="C14" s="10"/>
@@ -1257,7 +1327,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
       <c r="C15" s="10"/>
@@ -1267,7 +1337,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
@@ -1279,7 +1349,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1361,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1301,7 +1371,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="26.25">
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>15</v>
       </c>
@@ -1327,7 +1397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
@@ -1337,7 +1407,7 @@
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" ht="42" customHeight="1">
+    <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>1</v>
       </c>
@@ -1348,25 +1418,25 @@
         <v>24</v>
       </c>
       <c r="D21" s="30">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E21" s="29">
         <v>4</v>
       </c>
       <c r="F21" s="31">
         <f t="shared" ref="F21:F26" si="0">D21*E21</f>
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="G21" s="31">
         <f t="shared" ref="G21:G26" si="1">F21*18%</f>
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="H21" s="32">
         <f t="shared" ref="H21:H26" si="2">SUM(F21:G21)</f>
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="33.75" customHeight="1">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>2</v>
       </c>
@@ -1377,25 +1447,25 @@
         <v>25</v>
       </c>
       <c r="D22" s="30">
-        <v>1500</v>
+        <v>40000</v>
       </c>
       <c r="E22" s="29">
         <v>2</v>
       </c>
       <c r="F22" s="31">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>14400</v>
       </c>
       <c r="H22" s="32">
         <f t="shared" si="2"/>
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="34.5" customHeight="1">
+        <v>94400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>3</v>
       </c>
@@ -1424,7 +1494,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="32.25" customHeight="1">
+    <row r="24" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>4</v>
       </c>
@@ -1453,7 +1523,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="37.5" customHeight="1">
+    <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>5</v>
       </c>
@@ -1482,7 +1552,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="48.75" customHeight="1">
+    <row r="26" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>6</v>
       </c>
@@ -1511,7 +1581,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="33" t="s">
         <v>29</v>
@@ -1523,7 +1593,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="34"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1533,7 +1603,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="35"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="22"/>
       <c r="C29" s="37"/>
@@ -1543,7 +1613,7 @@
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41"/>
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
@@ -1553,7 +1623,7 @@
       <c r="G30" s="44"/>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1635,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1575,7 +1645,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>31</v>
       </c>
@@ -1587,7 +1657,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>32</v>
       </c>
@@ -1599,7 +1669,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>33</v>
       </c>
@@ -1611,7 +1681,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>34</v>
       </c>
@@ -1623,7 +1693,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1705,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1717,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>37</v>
       </c>
@@ -1659,7 +1729,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
         <v>38</v>
       </c>
@@ -1671,7 +1741,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>39</v>
       </c>
@@ -1683,7 +1753,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>40</v>
       </c>
@@ -1695,7 +1765,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1705,7 +1775,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
         <v>41</v>
       </c>
@@ -1717,7 +1787,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>42</v>
       </c>
@@ -1729,7 +1799,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1739,7 +1809,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="51" t="s">
         <v>43</v>
@@ -1753,7 +1823,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="51" t="s">
         <v>45</v>
@@ -1765,7 +1835,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1775,7 +1845,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1785,7 +1855,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1795,7 +1865,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1807,7 +1877,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="54"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -1817,17 +1887,17 @@
       <c r="G53" s="55"/>
       <c r="H53" s="56"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1835,24 +1905,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
